--- a/ListasDatos/González Altamirano Victorino Juventino_2021.xlsx
+++ b/ListasDatos/González Altamirano Victorino Juventino_2021.xlsx
@@ -559,7 +559,7 @@
     <t>2725726296</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2727211405</t>
@@ -646,7 +646,7 @@
     <t>LAURA PEREA VILLASEÑOR</t>
   </si>
   <si>
-    <t>NORMA MIGUELINA RUIZ CASTILLO RUIZ CASTILLO</t>
+    <t>NORMA MIGUELINA RUIZ CASTILLO</t>
   </si>
   <si>
     <t>ROSAS HORTENSIA ORTEGA</t>
@@ -2293,7 +2293,7 @@
     <t>DÁMARIS CID PÉREZ</t>
   </si>
   <si>
-    <t>ANA LAURA HUERTA JORGE ALFONSO CASTILLO CRUZ ANA LAURA HUERTA JORGE</t>
+    <t>ANA LAURA HUERTA JORGE</t>
   </si>
   <si>
     <t>MARTHA ELENA PÉREZ GUERRA</t>
@@ -2869,7 +2869,7 @@
     <t>ANGEL NURIEL HERNANDEZ LOPEZ</t>
   </si>
   <si>
-    <t>NORBERTA FLORES FRIAS FLORES FRIAS</t>
+    <t>NORBERTA FLORES FRIAS</t>
   </si>
   <si>
     <t>F. ESTEFANÍA REYES BALTAZAR</t>
